--- a/iselUssSyncV2/OutputWSL/20220426_1408_D50L474W90Q20U0.31H82G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220426_1408_D50L474W90Q20U0.31H82G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>82.441984126984124</v>
+        <v>82.442914894005071</v>
       </c>
       <c r="F2" s="0">
-        <v>82.316111111111113</v>
+        <v>82.317041878132073</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>83.233280632411052</v>
+        <v>83.23555584068454</v>
       </c>
       <c r="F3" s="0">
-        <v>84.209565217391315</v>
+        <v>84.211840425664846</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>82.354047619047591</v>
+        <v>82.356798552687351</v>
       </c>
       <c r="F4" s="0">
-        <v>85.754960317460288</v>
+        <v>85.757711251100076</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>81.812182539682567</v>
+        <v>81.814988629886486</v>
       </c>
       <c r="F5" s="0">
-        <v>86.107539682539652</v>
+        <v>86.110345772743628</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>81.121274900398447</v>
+        <v>81.124129252596077</v>
       </c>
       <c r="F6" s="0">
-        <v>83.493545816733075</v>
+        <v>83.496400168930734</v>
       </c>
     </row>
     <row r="7">
@@ -222,10 +222,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>78.353690476190494</v>
+        <v>78.356586195811289</v>
       </c>
       <c r="F7" s="0">
-        <v>85.953928571428534</v>
+        <v>85.956824291049386</v>
       </c>
     </row>
     <row r="8">
@@ -242,10 +242,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>74.329203187251011</v>
+        <v>74.332133379724425</v>
       </c>
       <c r="F8" s="0">
-        <v>81.688286852589684</v>
+        <v>81.691217045063084</v>
       </c>
     </row>
     <row r="9">
@@ -262,7 +262,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>71.942629482071681</v>
+        <v>71.945571533206433</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -280,10 +280,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>69.332976190476188</v>
+        <v>69.335928997140954</v>
       </c>
       <c r="F10" s="0">
-        <v>55.97904761904762</v>
+        <v>55.982000425712364</v>
       </c>
     </row>
     <row r="11">
@@ -300,10 +300,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>66.780674603174617</v>
+        <v>66.7836370622381</v>
       </c>
       <c r="F11" s="0">
-        <v>55.929166666666674</v>
+        <v>55.932129125730157</v>
       </c>
     </row>
     <row r="12">
@@ -320,10 +320,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>65.457023809523818</v>
+        <v>65.45999068111243</v>
       </c>
       <c r="F12" s="0">
-        <v>55.061865079365077</v>
+        <v>55.064831950953717</v>
       </c>
     </row>
     <row r="13">
@@ -340,10 +340,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>64.040198412698402</v>
+        <v>64.043169421029333</v>
       </c>
       <c r="F13" s="0">
-        <v>55.521865079365078</v>
+        <v>55.524836087696016</v>
       </c>
     </row>
     <row r="14">
@@ -360,10 +360,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>63.106984126984138</v>
+        <v>63.109958996274557</v>
       </c>
       <c r="F14" s="0">
-        <v>55.308492063492061</v>
+        <v>55.311466932782494</v>
       </c>
     </row>
     <row r="15">
@@ -380,10 +380,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>61.902857142857137</v>
+        <v>61.905835597324234</v>
       </c>
       <c r="F15" s="0">
-        <v>55.699999999999989</v>
+        <v>55.702978454467114</v>
       </c>
     </row>
     <row r="16">
@@ -400,10 +400,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>59.870039682539662</v>
+        <v>59.873024480011672</v>
       </c>
       <c r="F16" s="0">
-        <v>56.308015873015883</v>
+        <v>56.311000670487864</v>
       </c>
     </row>
     <row r="17">
@@ -420,10 +420,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>58.584262948207154</v>
+        <v>58.587252985552759</v>
       </c>
       <c r="F17" s="0">
-        <v>58.370000000000012</v>
+        <v>58.372990037345595</v>
       </c>
     </row>
     <row r="18">
@@ -440,10 +440,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>58.496190476190463</v>
+        <v>58.499184650278394</v>
       </c>
       <c r="F18" s="0">
-        <v>60.626349206349197</v>
+        <v>60.629343380437099</v>
       </c>
     </row>
     <row r="19">
@@ -460,10 +460,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>64.621274900398419</v>
+        <v>64.62427403857707</v>
       </c>
       <c r="F19" s="0">
-        <v>63.424741035856577</v>
+        <v>63.427740174035257</v>
       </c>
     </row>
     <row r="20">
@@ -480,10 +480,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>69.41206349206351</v>
+        <v>69.415062630242176</v>
       </c>
       <c r="F20" s="0">
-        <v>65.09714285714287</v>
+        <v>65.100141995321522</v>
       </c>
     </row>
     <row r="21">
@@ -500,10 +500,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>67.60354581673306</v>
+        <v>67.606538060341222</v>
       </c>
       <c r="F21" s="0">
-        <v>65.877171314741048</v>
+        <v>65.880163558349196</v>
       </c>
     </row>
     <row r="22">
@@ -520,10 +520,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>65.741111111111124</v>
+        <v>65.744089565578207</v>
       </c>
       <c r="F22" s="0">
-        <v>66.249880952380963</v>
+        <v>66.25285940684806</v>
       </c>
     </row>
     <row r="23">
@@ -540,10 +540,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>64.258492063492071</v>
+        <v>64.2614498342476</v>
       </c>
       <c r="F23" s="0">
-        <v>66.284206349206343</v>
+        <v>66.287164119961886</v>
       </c>
     </row>
     <row r="24">
@@ -560,10 +560,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>66.729523809523826</v>
+        <v>66.732419529144593</v>
       </c>
       <c r="F24" s="0">
-        <v>66.587103174603158</v>
+        <v>66.589998894223982</v>
       </c>
     </row>
     <row r="25">
@@ -580,10 +580,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>68.372539682539667</v>
+        <v>68.375345772743643</v>
       </c>
       <c r="F25" s="0">
-        <v>66.4770238095238</v>
+        <v>66.479829899727761</v>
       </c>
     </row>
     <row r="26">
@@ -600,10 +600,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>63.351904761904741</v>
+        <v>63.354593644409768</v>
       </c>
       <c r="F26" s="0">
-        <v>66.330793650793666</v>
+        <v>66.333482533298692</v>
       </c>
     </row>
     <row r="27">
@@ -620,10 +620,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>69.553531746031751</v>
+        <v>69.556075842555728</v>
       </c>
       <c r="F27" s="0">
-        <v>66.599325396825392</v>
+        <v>66.601869493349383</v>
       </c>
     </row>
     <row r="28">
@@ -640,10 +640,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>63.073027888446198</v>
+        <v>63.075399620707067</v>
       </c>
       <c r="F28" s="0">
-        <v>66.257250996015941</v>
+        <v>66.259622728276781</v>
       </c>
     </row>
     <row r="29">
@@ -660,10 +660,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>68.189482071713172</v>
+        <v>68.191653861428748</v>
       </c>
       <c r="F29" s="0">
-        <v>66.086733067729085</v>
+        <v>66.088904857444675</v>
       </c>
     </row>
     <row r="30">
@@ -680,10 +680,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>66.068326693227093</v>
+        <v>66.070015863005892</v>
       </c>
       <c r="F30" s="0">
-        <v>65.477131474103615</v>
+        <v>65.478820643882386</v>
       </c>
     </row>
   </sheetData>
